--- a/src/main/resources/sample_files/icd.xlsx
+++ b/src/main/resources/sample_files/icd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT\HIS-BE\src\main\resources\sample_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA06D8C2-5950-4F59-B9A0-3B4A1BDB3B01}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF437E57-255F-49B3-B3A9-64E2938264DA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{E801C2B5-447C-4455-B404-2A02F7E8E316}"/>
   </bookViews>
